--- a/biology/Zoologie/Garde-boue_(poisson)/Garde-boue_(poisson).xlsx
+++ b/biology/Zoologie/Garde-boue_(poisson)/Garde-boue_(poisson).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Neochanna apoda, le poisson garde-boue, est une espèce de poissons d'eau douce de la famille des Galaxiidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Zélande.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Neochanna apoda mesure jusqu'à 11 cm. Son corps est cylindrique ; son dos est brun avec des taches irrégulières noirâtres.
 </t>
@@ -573,7 +589,9 @@
           <t>État de préservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le poisson garde-boue (Neochanna apoda) est passé de la catégorie « Quasi menacé » à « Vulnérable » puis « En danger » car il a disparu de nombreux endroits où on pouvait le trouver. Environ 85 % à 90 %  des zones humides de Nouvelle-Zélande ont été perdues ou dégradées du fait des plans d’assèchement, du développement de l’irrigation et des terres cultivables.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Günther, 1867 : On a new form of mudfish from New Zealand. Annals and Magazine of Natural History, ser. 3, vol. 20, n. 119, p. 305-309 (texte intégral).</t>
         </is>
